--- a/gropin/schema/metadataschema1100.xlsx
+++ b/gropin/schema/metadataschema1100.xlsx
@@ -5244,7 +5244,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(0.85085,0.994005994005994,length.out=21)</t>
+          <t>seq(0.849150849150849,0.995995,length.out=21)</t>
         </is>
       </c>
     </row>
@@ -5287,8 +5287,8 @@
       <c r="O134" t="inlineStr">
         <is>
           <t>This dataframe consists of a number of columns 
-                            in relation to the number of variables of this
-                            model. One additional column contains the response
+                            in relation to the number of variables of this 
+                            model. One additional column contains the response 
                             surface mu_max result based on this secondary model.</t>
         </is>
       </c>

--- a/gropin/schema/metadataschema1100.xlsx
+++ b/gropin/schema/metadataschema1100.xlsx
@@ -1481,6 +1481,11 @@
           <t>International Journal of Food Microbiology ,  63, 111-117</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>International Journal of Food Microbiology ,  63, 111-117</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1723,6 +1728,11 @@
           <t>String</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5271,7 +5281,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>mumax</t>
+          <t>responseSurface</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
